--- a/Documentation/Risk_Assessment.xlsx
+++ b/Documentation/Risk_Assessment.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\matt1\eclipse-workspace\MusicStore\Documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{062468A8-F146-44C8-8538-2A5C2C09909C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A66FBF3-6D8C-4760-880B-596320080A4B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{14003B88-1E4E-4312-8353-3CCDFE83FDEC}"/>
   </bookViews>
@@ -23,6 +23,7 @@
     <definedName name="Moderate">Sheet1!$N$5:$N$9</definedName>
     <definedName name="Negligible">Sheet1!$M$5:$M$9</definedName>
     <definedName name="Possible">Sheet1!$L$7:$P$7</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">Sheet1!$B$3:$P$10</definedName>
     <definedName name="Rare">Sheet1!$L$9:$P$9</definedName>
     <definedName name="Significant">Sheet1!$P$5:$P$9</definedName>
     <definedName name="Unlikely">Sheet1!$L$8:$P$8</definedName>
@@ -46,7 +47,7 @@
 </file>
 
 <file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
   <metadataTypes count="1">
     <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
   </metadataTypes>
@@ -397,29 +398,11 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -431,6 +414,24 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -748,13 +749,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D09FCB6E-9117-42B8-AC49-0D0655BAED28}">
   <dimension ref="B3:P10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="60" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="13.5546875" style="17" customWidth="1"/>
+    <col min="2" max="2" width="13.5546875" style="11" customWidth="1"/>
     <col min="3" max="3" width="18.109375" style="2" customWidth="1"/>
     <col min="4" max="4" width="31.6640625" style="2" customWidth="1"/>
     <col min="5" max="5" width="11.33203125" style="2" customWidth="1"/>
@@ -773,82 +774,82 @@
     <row r="3" spans="2:16" x14ac:dyDescent="0.3">
       <c r="J3" s="4"/>
       <c r="K3" s="5"/>
-      <c r="L3" s="6" t="s">
+      <c r="L3" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="M3" s="7"/>
-      <c r="N3" s="7"/>
-      <c r="O3" s="7"/>
-      <c r="P3" s="8"/>
+      <c r="M3" s="16"/>
+      <c r="N3" s="16"/>
+      <c r="O3" s="16"/>
+      <c r="P3" s="17"/>
     </row>
     <row r="4" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B4" s="18" t="s">
+      <c r="B4" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="18" t="s">
+      <c r="C4" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="D4" s="18" t="s">
+      <c r="D4" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="E4" s="18" t="s">
+      <c r="E4" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="F4" s="18" t="s">
+      <c r="F4" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="G4" s="18" t="s">
+      <c r="G4" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="H4" s="18" t="s">
+      <c r="H4" s="12" t="s">
         <v>15</v>
       </c>
       <c r="I4" s="3"/>
-      <c r="J4" s="9"/>
-      <c r="K4" s="10"/>
-      <c r="L4" s="11" t="s">
+      <c r="J4" s="6"/>
+      <c r="K4" s="7"/>
+      <c r="L4" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="M4" s="12" t="s">
+      <c r="M4" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="N4" s="12" t="s">
+      <c r="N4" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="O4" s="12" t="s">
+      <c r="O4" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="P4" s="12" t="s">
+      <c r="P4" s="9" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="5" spans="2:16" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="B5" s="19" t="s">
+      <c r="B5" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="C5" s="20" t="s">
+      <c r="C5" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="D5" s="20" t="s">
+      <c r="D5" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="E5" s="20" t="s">
+      <c r="E5" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="F5" s="20" t="s">
+      <c r="F5" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="G5" s="20" t="s">
+      <c r="G5" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="H5" s="20" cm="1">
+      <c r="H5" s="14" cm="1">
         <f t="array" aca="1" ref="H5" ca="1">INDIRECT(F5) INDIRECT(G5)</f>
         <v>4</v>
       </c>
-      <c r="J5" s="13" t="s">
+      <c r="J5" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="K5" s="14" t="s">
+      <c r="K5" s="10" t="s">
         <v>10</v>
       </c>
       <c r="L5" s="1">
@@ -868,30 +869,30 @@
       </c>
     </row>
     <row r="6" spans="2:16" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="B6" s="19" t="s">
+      <c r="B6" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="C6" s="20" t="s">
+      <c r="C6" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="D6" s="20" t="s">
+      <c r="D6" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="E6" s="20" t="s">
+      <c r="E6" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="F6" s="20" t="s">
+      <c r="F6" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="G6" s="20" t="s">
+      <c r="G6" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="H6" s="20" cm="1">
+      <c r="H6" s="14" cm="1">
         <f t="array" aca="1" ref="H6" ca="1">INDIRECT(F6) INDIRECT(G6)</f>
         <v>4</v>
       </c>
-      <c r="J6" s="15"/>
-      <c r="K6" s="12" t="s">
+      <c r="J6" s="19"/>
+      <c r="K6" s="9" t="s">
         <v>11</v>
       </c>
       <c r="L6" s="1">
@@ -911,30 +912,30 @@
       </c>
     </row>
     <row r="7" spans="2:16" ht="72" x14ac:dyDescent="0.3">
-      <c r="B7" s="19" t="s">
+      <c r="B7" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="C7" s="20" t="s">
+      <c r="C7" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="D7" s="20" t="s">
+      <c r="D7" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="E7" s="20" t="s">
+      <c r="E7" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="F7" s="20" t="s">
+      <c r="F7" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="G7" s="20" t="s">
+      <c r="G7" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="H7" s="20" cm="1">
+      <c r="H7" s="14" cm="1">
         <f t="array" aca="1" ref="H7" ca="1">INDIRECT(F7) INDIRECT(G7)</f>
         <v>5</v>
       </c>
-      <c r="J7" s="15"/>
-      <c r="K7" s="12" t="s">
+      <c r="J7" s="19"/>
+      <c r="K7" s="9" t="s">
         <v>12</v>
       </c>
       <c r="L7" s="1">
@@ -954,30 +955,30 @@
       </c>
     </row>
     <row r="8" spans="2:16" ht="86.4" x14ac:dyDescent="0.3">
-      <c r="B8" s="19" t="s">
+      <c r="B8" s="13" t="s">
         <v>34</v>
       </c>
-      <c r="C8" s="20" t="s">
+      <c r="C8" s="14" t="s">
         <v>39</v>
       </c>
-      <c r="D8" s="20" t="s">
+      <c r="D8" s="14" t="s">
         <v>35</v>
       </c>
-      <c r="E8" s="20" t="s">
+      <c r="E8" s="14" t="s">
         <v>29</v>
       </c>
-      <c r="F8" s="20" t="s">
+      <c r="F8" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="G8" s="20" t="s">
+      <c r="G8" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="H8" s="20" cm="1">
+      <c r="H8" s="14" cm="1">
         <f t="array" aca="1" ref="H8" ca="1">INDIRECT(F8) INDIRECT(G8)</f>
         <v>5</v>
       </c>
-      <c r="J8" s="15"/>
-      <c r="K8" s="12" t="s">
+      <c r="J8" s="19"/>
+      <c r="K8" s="9" t="s">
         <v>13</v>
       </c>
       <c r="L8" s="1">
@@ -997,30 +998,30 @@
       </c>
     </row>
     <row r="9" spans="2:16" ht="72" x14ac:dyDescent="0.3">
-      <c r="B9" s="19" t="s">
+      <c r="B9" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="C9" s="20" t="s">
+      <c r="C9" s="14" t="s">
         <v>31</v>
       </c>
-      <c r="D9" s="20" t="s">
+      <c r="D9" s="14" t="s">
         <v>32</v>
       </c>
-      <c r="E9" s="20" t="s">
+      <c r="E9" s="14" t="s">
         <v>33</v>
       </c>
-      <c r="F9" s="20" t="s">
+      <c r="F9" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="G9" s="20" t="s">
+      <c r="G9" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="H9" s="20" cm="1">
+      <c r="H9" s="14" cm="1">
         <f t="array" aca="1" ref="H9" ca="1">INDIRECT(F9) INDIRECT(G9)</f>
         <v>5</v>
       </c>
-      <c r="J9" s="16"/>
-      <c r="K9" s="12" t="s">
+      <c r="J9" s="20"/>
+      <c r="K9" s="9" t="s">
         <v>14</v>
       </c>
       <c r="L9" s="1">
@@ -1040,25 +1041,25 @@
       </c>
     </row>
     <row r="10" spans="2:16" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="B10" s="19" t="s">
+      <c r="B10" s="13" t="s">
         <v>36</v>
       </c>
-      <c r="C10" s="20" t="s">
+      <c r="C10" s="14" t="s">
         <v>37</v>
       </c>
-      <c r="D10" s="20" t="s">
+      <c r="D10" s="14" t="s">
         <v>38</v>
       </c>
-      <c r="E10" s="20" t="s">
+      <c r="E10" s="14" t="s">
         <v>40</v>
       </c>
-      <c r="F10" s="20" t="s">
+      <c r="F10" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="G10" s="20" t="s">
+      <c r="G10" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="H10" s="20" cm="1">
+      <c r="H10" s="14" cm="1">
         <f t="array" aca="1" ref="H10" ca="1">INDIRECT(F10) INDIRECT(G10)</f>
         <v>4</v>
       </c>
@@ -1081,6 +1082,6 @@
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="1200" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="71" orientation="landscape" horizontalDpi="4294967292" verticalDpi="1200" r:id="rId1"/>
 </worksheet>
 </file>